--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1643183.716663161</v>
+        <v>1687605.491648996</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484444</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6300028.473531381</v>
+        <v>6321959.822888183</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>402.7869235239925</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>90.64487174447788</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>151.7936689723505</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>186.7592714314211</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>334.6326429138664</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>396.67033489957</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>5.990622819018782</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1133,7 +1133,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>60.96455341963217</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>184.9203686683008</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1300,13 +1300,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>111.5098183264947</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>154.4380635245683</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>219.4201062858538</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1534,13 +1534,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>98.3438513309559</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>94.21878984361742</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1616,13 +1616,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>155.9902440393936</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>275.2704214118789</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>195.891055350816</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571953</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>244.0540666443824</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561545</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86.91406253606236</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2050,7 +2050,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>131.3131589043797</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2144,7 +2144,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864827</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>98.73120706589836</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2369,7 +2369,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556927</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2731,7 +2731,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>172.6623007436918</v>
+        <v>260.435650476763</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436915</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3320,7 +3320,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561542</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3436,13 +3436,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>73.7153530015302</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3670,7 +3670,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3679,7 +3679,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>193.8659438253738</v>
+        <v>180.9306063168803</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>237.2534186025697</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>167.0140765363397</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>29.10461178738982</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3952,7 +3952,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>219.1192377452364</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>372.3046183802601</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>33.08339867820351</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4153,7 +4153,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4192,13 +4192,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>275.2967631885903</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>216.6020410093182</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1666.462003271223</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1228.319530454647</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>792.409745629091</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>762.6754048277903</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>334.8079752369981</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>334.8079752369981</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1002.975152381412</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1568.238183299064</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257659</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2200.239160194552</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>2200.239160194552</v>
       </c>
       <c r="U2" t="n">
-        <v>1354.309253581271</v>
+        <v>2200.239160194552</v>
       </c>
       <c r="V2" t="n">
-        <v>991.6923035150976</v>
+        <v>2200.239160194552</v>
       </c>
       <c r="W2" t="n">
-        <v>586.8368489261309</v>
+        <v>2199.42410964599</v>
       </c>
       <c r="X2" t="n">
-        <v>179.9813706190676</v>
+        <v>2184.322050265705</v>
       </c>
       <c r="Y2" t="n">
-        <v>175.7356509591251</v>
+        <v>2092.761573756131</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715071</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081494</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547027</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816564</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.798562597818</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.41347286400185</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067191</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>961.5628497245362</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064683</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999975</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331694</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720495</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512702</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1005.1071068273</v>
+        <v>1124.735981292096</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>952.1742697753206</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>786.2962769768433</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>616.5382732275806</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>439.8312191893368</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>274.2399442151644</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>134.337769905539</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>320.4362752513499</v>
       </c>
       <c r="L4" t="n">
-        <v>538.7332355342593</v>
+        <v>738.646157019311</v>
       </c>
       <c r="M4" t="n">
-        <v>761.43086230084</v>
+        <v>1198.130024200224</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1640.388827357869</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>2060.05807658365</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2124.649665308712</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1878.770218887167</v>
       </c>
       <c r="U4" t="n">
-        <v>1292.062614956869</v>
+        <v>1600.337218140272</v>
       </c>
       <c r="V4" t="n">
-        <v>1005.1071068273</v>
+        <v>1313.381710010703</v>
       </c>
       <c r="W4" t="n">
-        <v>1005.1071068273</v>
+        <v>1124.735981292096</v>
       </c>
       <c r="X4" t="n">
-        <v>1005.1071068273</v>
+        <v>1124.735981292096</v>
       </c>
       <c r="Y4" t="n">
-        <v>1005.1071068273</v>
+        <v>1124.735981292096</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>977.6515424412072</v>
       </c>
       <c r="C5" t="n">
-        <v>1316.748663427056</v>
+        <v>943.5494736650346</v>
       </c>
       <c r="D5" t="n">
-        <v>888.1669891643244</v>
+        <v>911.6800928798832</v>
       </c>
       <c r="E5" t="n">
-        <v>459.5853149015927</v>
+        <v>477.9053480381784</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>454.0783224877902</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>437.0247332457074</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>437.0247332457074</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>437.0247332457074</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>437.0247332457074</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1827.339296006747</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1408.196832586058</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1403.951112926115</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>1049.85056207581</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>877.2888505590353</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>711.410857760558</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>541.6528540112952</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>364.9457999730514</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>199.3545249988791</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>59.45235068925359</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="W7" t="n">
-        <v>1697.183430080417</v>
+        <v>1714.480606147277</v>
       </c>
       <c r="X7" t="n">
-        <v>1532.240118618369</v>
+        <v>1469.088851480689</v>
       </c>
       <c r="Y7" t="n">
-        <v>1304.820447932477</v>
+        <v>1241.669180794798</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>489.9592645846402</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>428.3789075951127</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1134.24202645431</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>771.6250763881362</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>366.7696217991695</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>179.9813706190676</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5039,16 +5039,16 @@
         <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111518</v>
+        <v>403.2461837293682</v>
       </c>
       <c r="K11" t="n">
-        <v>931.0862686392932</v>
+        <v>1237.596475687546</v>
       </c>
       <c r="L11" t="n">
-        <v>2006.146234892153</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M11" t="n">
-        <v>2006.146234892153</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N11" t="n">
         <v>2312.656441940405</v>
@@ -5066,25 +5066,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928797</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245814</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.89235417964</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590673</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3170.894436169984</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>870.3006880091984</v>
+        <v>965.4711828007305</v>
       </c>
       <c r="C13" t="n">
-        <v>697.7389764924237</v>
+        <v>792.9094712839554</v>
       </c>
       <c r="D13" t="n">
-        <v>531.8609836939464</v>
+        <v>627.0314784854781</v>
       </c>
       <c r="E13" t="n">
-        <v>362.1029799446837</v>
+        <v>527.694254918856</v>
       </c>
       <c r="F13" t="n">
-        <v>185.3959259064399</v>
+        <v>350.9872008806122</v>
       </c>
       <c r="G13" t="n">
         <v>185.3959259064399</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="S13" t="n">
-        <v>2618.225091792382</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="T13" t="n">
-        <v>2372.345645370838</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U13" t="n">
-        <v>2093.912644623943</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V13" t="n">
-        <v>1806.957136494373</v>
+        <v>1902.127631285905</v>
       </c>
       <c r="W13" t="n">
-        <v>1534.930732080665</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X13" t="n">
-        <v>1289.538977414077</v>
+        <v>1384.709472205609</v>
       </c>
       <c r="Y13" t="n">
-        <v>1062.119306728186</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2511.87917085155</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>2073.736698034973</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D14" t="n">
-        <v>1637.826913209418</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.052168367713</v>
+        <v>944.8298656847296</v>
       </c>
       <c r="F14" t="n">
-        <v>776.1847387769209</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G14" t="n">
-        <v>374.7869074001848</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
         <v>96.73597668111518</v>
@@ -5276,16 +5276,16 @@
         <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111518</v>
+        <v>403.2461837293682</v>
       </c>
       <c r="K14" t="n">
-        <v>931.0862686392932</v>
+        <v>1237.596475687546</v>
       </c>
       <c r="L14" t="n">
-        <v>2006.146234892153</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M14" t="n">
-        <v>2006.146234892153</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N14" t="n">
         <v>2312.656441940405</v>
@@ -5309,19 +5309,19 @@
         <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4533.079733112634</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>4170.462783046461</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3765.607328457494</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3346.464865036804</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2938.178741336458</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.134188067672</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C16" t="n">
-        <v>914.5724765508969</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D16" t="n">
-        <v>748.6944837524196</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E16" t="n">
-        <v>578.9364800031568</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F16" t="n">
-        <v>402.229425964913</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H16" t="n">
         <v>96.73597668111518</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881912</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V16" t="n">
-        <v>1831.97201783386</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1559.945613420152</v>
+        <v>1470.859858170193</v>
       </c>
       <c r="X16" t="n">
-        <v>1314.553858753564</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y16" t="n">
-        <v>1087.134188067672</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2524.805766429521</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2086.663293612944</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1650.753508787388</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1216.978763945683</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.1113343548909</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7135029781548</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>98.58334842137108</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4251.737835489029</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4798.236621447623</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068554</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252391</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.44832012543</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442446</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376273</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787306</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366617</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.32502566627</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1177.641509033253</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C19" t="n">
-        <v>1005.079797516477</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>839.2018047180001</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>669.4438009687374</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>492.7367469304936</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>327.1454719563212</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466957</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2693.825137029542</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2534.583768327539</v>
+        <v>2564.863074430083</v>
       </c>
       <c r="T19" t="n">
-        <v>2288.704321905994</v>
+        <v>2318.983628008538</v>
       </c>
       <c r="U19" t="n">
-        <v>2010.271321159099</v>
+        <v>2040.550627261644</v>
       </c>
       <c r="V19" t="n">
-        <v>2010.271321159099</v>
+        <v>1753.595119132074</v>
       </c>
       <c r="W19" t="n">
-        <v>1738.244916745391</v>
+        <v>1481.568714718366</v>
       </c>
       <c r="X19" t="n">
-        <v>1492.853162078803</v>
+        <v>1236.176960051778</v>
       </c>
       <c r="Y19" t="n">
-        <v>1265.433491392911</v>
+        <v>1008.757289365886</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5795,7 +5795,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>949.578225095767</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>777.0165135789921</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>677.2880215932363</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>330.8229638057297</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354693</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066049</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1614.208269167234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6017,22 +6017,22 @@
         <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6385,7 +6385,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L28" t="n">
         <v>881.8088617745661</v>
@@ -6409,25 +6409,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
         <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2117.975449367836</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="29">
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601649</v>
       </c>
     </row>
     <row r="32">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6923,49 +6923,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
         <v>4550.100609912873</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>1090.187678435287</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>917.6259669185118</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>751.7479741200345</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>581.9899703707717</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>405.282916332528</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>2026.844126920462</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1509.425967840166</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1282.006297154274</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7160,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,43 +7181,43 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2758.053686176684</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7363,19 +7363,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2313.799635050031</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1852.608446104267</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1335.190287023971</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2527.052675911533</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.910203094956</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.000418269401</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.225673427696</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369036</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9604124601675</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033837</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M41" t="n">
-        <v>2665.685099163888</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N41" t="n">
-        <v>2665.685099163888</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.864765734194</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P41" t="n">
-        <v>4474.17464056759</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.673426526186</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526186</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710023</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583061</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U41" t="n">
-        <v>4548.253238172617</v>
+        <v>4357.509304245814</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.636288106443</v>
+        <v>3994.89235417964</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.780833517477</v>
+        <v>3590.036899590674</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.638370096787</v>
+        <v>3170.894436169985</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.35224639644</v>
+        <v>2762.608312469638</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>867.0077433160046</v>
+        <v>976.6306115230864</v>
       </c>
       <c r="C43" t="n">
-        <v>867.0077433160046</v>
+        <v>804.0689000063114</v>
       </c>
       <c r="D43" t="n">
-        <v>701.1297505175273</v>
+        <v>638.190907207834</v>
       </c>
       <c r="E43" t="n">
-        <v>531.3717467682645</v>
+        <v>468.4329034585713</v>
       </c>
       <c r="F43" t="n">
-        <v>354.6646927300208</v>
+        <v>291.7258494203275</v>
       </c>
       <c r="G43" t="n">
-        <v>189.0734177558484</v>
+        <v>126.1345744461552</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558484</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S43" t="n">
-        <v>2557.831709731321</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T43" t="n">
-        <v>2311.952263309776</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.619699930749</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V43" t="n">
-        <v>1803.664191801179</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W43" t="n">
-        <v>1531.637787387471</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X43" t="n">
-        <v>1286.246032720883</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y43" t="n">
-        <v>1058.826362034992</v>
+        <v>976.6306115230864</v>
       </c>
     </row>
     <row r="44">
@@ -7640,10 +7640,10 @@
         <v>385.8661312378989</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J44" t="n">
         <v>531.9906641340331</v>
@@ -7673,25 +7673,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S44" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.381259633332</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.158956950349</v>
+        <v>4493.924657556612</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.542006884175</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W44" t="n">
-        <v>3776.686552295208</v>
+        <v>3726.452252901472</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.544088874519</v>
+        <v>3307.309789480783</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.257965174172</v>
+        <v>2899.023665780436</v>
       </c>
     </row>
     <row r="45">
@@ -7719,7 +7719,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I45" t="n">
         <v>122.7996498415728</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1003.232425776221</v>
+        <v>1087.134188067672</v>
       </c>
       <c r="C46" t="n">
-        <v>1003.232425776221</v>
+        <v>914.5724765508967</v>
       </c>
       <c r="D46" t="n">
-        <v>837.3544329777442</v>
+        <v>748.6944837524194</v>
       </c>
       <c r="E46" t="n">
-        <v>667.5964292284815</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F46" t="n">
-        <v>490.8893751902377</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J46" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K46" t="n">
         <v>458.0741164169406</v>
@@ -7828,28 +7828,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S46" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T46" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U46" t="n">
-        <v>2008.423949418844</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V46" t="n">
-        <v>1721.468441289275</v>
+        <v>1751.764232139138</v>
       </c>
       <c r="W46" t="n">
-        <v>1449.442036875566</v>
+        <v>1751.764232139138</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.652096462113</v>
+        <v>1506.372477472551</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.232425776221</v>
+        <v>1278.952806786659</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>527.3158022709897</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026787</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.34648051320369</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>224.9470977440209</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>226.0938963909753</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8213,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>309.6062697457101</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>309.6062697457101</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504349</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,19 +10829,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>753.9218057523913</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>222.835035322636</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807277</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>267.5985112554904</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>184.7831561774893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,13 +23422,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>69.71657238081421</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>63.43016517136589</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>267.5985112554907</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>10.96843159933701</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>88.19489769745782</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>139.5921776627264</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>177.9825081356763</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.190246567156956e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>102.9863699957349</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>26.33579611060361</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65.48800580459417</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>102.9863699957339</v>
+        <v>15.21302026266272</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>102.9863699957342</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>90.2200092229004</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,10 +25603,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>90.22000922290006</v>
+        <v>103.1553467313935</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>184.783156177489</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>89.61600311981354</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>109.3985407791394</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>56.52943299418931</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>49.73195639979861</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>184.7831561774883</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,13 +26080,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>8.789189859683518</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>26.33579611060341</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>541140.0766792018</v>
+        <v>545652.7471043408</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>541140.0766792018</v>
+        <v>548622.9779138023</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>541140.0766792018</v>
+        <v>548622.9779138023</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>531569.9065808231</v>
+        <v>531569.9065808232</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>531569.9065808232</v>
+        <v>531569.9065808231</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>539070.8749417166</v>
+        <v>554002.7640730487</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>554002.7640730487</v>
+        <v>554002.7640730485</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>546501.7957121553</v>
+        <v>531569.9065808232</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>531569.9065808232</v>
+        <v>531569.906580823</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415514.1729150665</v>
+        <v>415514.1729150666</v>
       </c>
       <c r="C2" t="n">
-        <v>415514.1729150665</v>
+        <v>415514.1729150666</v>
       </c>
       <c r="D2" t="n">
-        <v>415514.1729150667</v>
+        <v>415514.1729150666</v>
       </c>
       <c r="E2" t="n">
         <v>391781.0209280492</v>
       </c>
       <c r="F2" t="n">
-        <v>391781.0209280492</v>
+        <v>391781.0209280491</v>
       </c>
       <c r="G2" t="n">
-        <v>397309.4321605105</v>
+        <v>408314.627706448</v>
       </c>
       <c r="H2" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.6277064479</v>
       </c>
       <c r="I2" t="n">
         <v>408314.627706448</v>
@@ -26350,7 +26350,7 @@
         <v>408314.627706448</v>
       </c>
       <c r="O2" t="n">
-        <v>402786.2164739867</v>
+        <v>391781.0209280492</v>
       </c>
       <c r="P2" t="n">
         <v>391781.0209280492</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476932</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745929</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>18928.52796216478</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996332</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>149391.5964256749</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393348</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>158508.4222774738</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
         <v>39457.78817960744</v>
@@ -26430,13 +26430,13 @@
         <v>39457.78817960744</v>
       </c>
       <c r="G4" t="n">
-        <v>40014.57594554744</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="I4" t="n">
-        <v>41122.95192991268</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="J4" t="n">
         <v>41122.95192991271</v>
@@ -26448,13 +26448,13 @@
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.95192991267</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>40566.16416397272</v>
+        <v>39457.78817960743</v>
       </c>
       <c r="P4" t="n">
         <v>39457.78817960744</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696287</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26482,13 +26482,13 @@
         <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024202</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319802</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26333.55106232101</v>
+        <v>-2683.096827063331</v>
       </c>
       <c r="C6" t="n">
-        <v>168524.8517220309</v>
+        <v>170727.8661769451</v>
       </c>
       <c r="D6" t="n">
-        <v>168524.8517220311</v>
+        <v>201917.9011144044</v>
       </c>
       <c r="E6" t="n">
-        <v>44448.86844875693</v>
+        <v>116992.256705883</v>
       </c>
       <c r="F6" t="n">
-        <v>278803.8904707943</v>
+        <v>278727.3319159973</v>
       </c>
       <c r="G6" t="n">
-        <v>276042.3003718705</v>
+        <v>270521.6848691953</v>
       </c>
       <c r="H6" t="n">
-        <v>277070.6821907795</v>
+        <v>289450.21283136</v>
       </c>
       <c r="I6" t="n">
-        <v>289473.4371707428</v>
+        <v>289450.2128313601</v>
       </c>
       <c r="J6" t="n">
-        <v>178458.9718257525</v>
+        <v>140058.6164056852</v>
       </c>
       <c r="K6" t="n">
-        <v>289473.4371707427</v>
+        <v>264603.2760474266</v>
       </c>
       <c r="L6" t="n">
-        <v>289473.4371707427</v>
+        <v>289450.2128313601</v>
       </c>
       <c r="M6" t="n">
-        <v>93872.25788767508</v>
+        <v>154460.2682183567</v>
       </c>
       <c r="N6" t="n">
-        <v>289473.4371707428</v>
+        <v>289450.2128313601</v>
       </c>
       <c r="O6" t="n">
-        <v>285905.8162268159</v>
+        <v>278727.3319159974</v>
       </c>
       <c r="P6" t="n">
-        <v>278803.8904707943</v>
+        <v>278727.3319159974</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26802,7 +26802,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,7 +26826,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
         <v>1209.19970851394</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760661</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760661</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27433,19 +27433,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>12.16411526248987</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>313.5583907188652</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>19.04242542925678</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,13 +27591,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>82.54686893815028</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>99.12840517454447</v>
-      </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.71351816339876</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>81.78272691405263</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>372.7964946687787</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>230.0306701181816</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>26.99333424003453</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>527.3158022709897</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026787</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.34648051320369</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>224.9470977440209</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>226.0938963909753</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>309.6062697457101</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35580,13 +35580,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>309.6062697457101</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35817,7 +35817,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504349</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908053</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,7 +36285,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36756,7 +36756,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37549,19 +37549,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>753.9218057523913</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37786,7 +37786,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>222.835035322636</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807277</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
